--- a/target/classes/data.xlsx
+++ b/target/classes/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11640" windowHeight="4140" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11730" windowHeight="4035" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
